--- a/biology/Botanique/Salix_gracilistyla/Salix_gracilistyla.xlsx
+++ b/biology/Botanique/Salix_gracilistyla/Salix_gracilistyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix gracilistyla[3], appelé rose-gold pussy willow en anglais[4], est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule natif du Japon, de Corée et de Chine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix gracilistyla, appelé rose-gold pussy willow en anglais, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule natif du Japon, de Corée et de Chine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste à feuilles caduques dont la taille varie de 1 à 6 m.
 Son feuillage est grisâtre avec un port ramassé. Le bois est vert. C'est une espèce rustique.
@@ -543,7 +557,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>S. gracilistyla var. melanostachys,  saule griffes de loup ou Salix gracilistyla 'melanostachys kurome' en français, « black pussy willow » en anglais, est connu pour ses chatons mâles et femelles, particulièrement foncés, rouge noirâtre. Les anthères des étamines portées par les chatons mâles sont d'un rouge tournant lentement au jaune avec la venue du pollen.</t>
         </is>
@@ -573,16 +589,18 @@
           <t>Liste des sous-espèces, variétés et forme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (6 mars 2020)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (6 mars 2020) :
 forme Salix gracilistyla f. melanostachys (Makino) H.Ohashi
-Selon Catalogue of Life                                   (6 mars 2020)[5] :
+Selon Catalogue of Life                                   (6 mars 2020) :
 sous-espèce Salix gracilistyla subsp. adscendens (Kimura) Hiroyoshi Ohashi
 sous-espèce Salix gracilistyla subsp. pendula (Kimura) Hiroyoshi Ohashi
 variété Salix gracilistyla var. graciliglans
 variété Salix gracilistyla var. melanostachys
-Selon Tropicos                                           (6 mars 2020)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 mars 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Salix gracilistyla var. acuminata Skvortsov
 variété Salix gracilistyla var. latifolia Skvortsov</t>
         </is>
